--- a/biology/Botanique/Impatiens_kamerunensis/Impatiens_kamerunensis.xlsx
+++ b/biology/Botanique/Impatiens_kamerunensis/Impatiens_kamerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Impatiens kamerunensis est une espèce de plantes à fleurs de la famille des Balsaminaceae[1]. Elle a été décrite par le botaniste allemand Otto Warburg en 1895[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Impatiens kamerunensis est une espèce de plantes à fleurs de la famille des Balsaminaceae. Elle a été décrite par le botaniste allemand Otto Warburg en 1895.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur de cette plante est de couleur violette[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur de cette plante est de couleur violette.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est répandue au Niger, au Cameroun, au Liberia et au Togo[1] et pousse à des altitudes entre 450 et 1 900 mètres[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est répandue au Niger, au Cameroun, au Liberia et au Togo et pousse à des altitudes entre 450 et 1 900 mètres.
 </t>
         </is>
       </c>
@@ -573,16 +589,18 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (23 juillet 2017)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (23 juillet 2017) :
 sous-espèce Impatiens kamerunensis subsp. kamerunensis
 sous-espèce Impatiens kamerunensis subsp. obanensis
 variété Impatiens kamerunensis var. parvifolia
-Selon NCBI  (23 juillet 2017)[6] :
+Selon NCBI  (23 juillet 2017) :
 sous-espèce Impatiens kamerunensis subsp. kamerunensis
 sous-espèce Impatiens kamerunensis subsp. obanensis
-Selon Tropicos                                           (23 juillet 2017)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Impatiens kamerunensis subsp. kamerunensis
 sous-espèce Impatiens kamerunensis subsp. obanensis (Keay) Grey-Wilson</t>
         </is>
